--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103_SaoViet.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103_SaoViet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang3\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang3\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="TOP-1" sheetId="19" r:id="rId1"/>
@@ -649,6 +649,36 @@
     <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -656,36 +686,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -994,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S10"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1027,43 +1027,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
       <c r="W1" s="52"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -1108,58 +1108,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="65" t="s">
+      <c r="L4" s="59"/>
+      <c r="M4" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="65" t="s">
+      <c r="N4" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="62" t="s">
+      <c r="O4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="63" t="s">
+      <c r="P4" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="62" t="s">
+      <c r="Q4" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="62" t="s">
+      <c r="R4" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="68" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="62" t="s">
+      <c r="U4" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="V4" s="59" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="53"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1184,23 +1184,23 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="68"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
       <c r="W5" s="53"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1210,7 +1210,9 @@
       <c r="B6" s="42">
         <v>44257</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="42">
+        <v>44258</v>
+      </c>
       <c r="D6" s="43" t="s">
         <v>63</v>
       </c>
@@ -1250,7 +1252,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="13"/>
-      <c r="U6" s="59" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1265,7 +1267,9 @@
       <c r="B7" s="42">
         <v>44257</v>
       </c>
-      <c r="C7" s="42"/>
+      <c r="C7" s="42">
+        <v>44258</v>
+      </c>
       <c r="D7" s="43" t="s">
         <v>63</v>
       </c>
@@ -1305,7 +1309,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="60"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1350,7 +1354,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="60"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1397,7 +1401,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="23"/>
-      <c r="U9" s="60"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1410,7 +1414,9 @@
       <c r="B10" s="42">
         <v>44257</v>
       </c>
-      <c r="C10" s="42"/>
+      <c r="C10" s="42">
+        <v>44258</v>
+      </c>
       <c r="D10" s="43" t="s">
         <v>63</v>
       </c>
@@ -1456,7 +1462,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="32"/>
-      <c r="U10" s="60"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1485,7 +1491,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="60"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1514,7 +1520,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="59" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1545,7 +1551,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="60"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1574,7 +1580,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="60"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1603,7 +1609,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="60"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1632,7 +1638,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="61"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2863,6 +2869,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -2876,11 +2887,6 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2891,7 +2897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
@@ -2924,43 +2930,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
       <c r="W1" s="52"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -3005,58 +3011,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="65" t="s">
+      <c r="L4" s="59"/>
+      <c r="M4" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="65" t="s">
+      <c r="N4" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="62" t="s">
+      <c r="O4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="63" t="s">
+      <c r="P4" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="62" t="s">
+      <c r="Q4" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="62" t="s">
+      <c r="R4" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="68" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="62" t="s">
+      <c r="U4" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="V4" s="59" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="53"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="49" t="s">
         <v>1</v>
       </c>
@@ -3081,23 +3087,23 @@
       <c r="I5" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="49" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="68"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
       <c r="W5" s="53"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3147,7 +3153,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="48"/>
-      <c r="U6" s="59" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3202,7 +3208,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="48"/>
-      <c r="U7" s="60"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3247,7 +3253,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="48"/>
-      <c r="U8" s="60"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3294,7 +3300,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="48"/>
-      <c r="U9" s="60"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3353,7 +3359,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="48"/>
-      <c r="U10" s="60"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3382,7 +3388,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="48"/>
-      <c r="U11" s="60"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3411,7 +3417,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="48"/>
-      <c r="U12" s="59" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3442,7 +3448,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="48"/>
-      <c r="U13" s="60"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3471,7 +3477,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="48"/>
-      <c r="U14" s="60"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3500,7 +3506,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="60"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3529,7 +3535,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="61"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4760,13 +4766,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4778,6 +4777,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103_SaoViet.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103_SaoViet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang3\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang3\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TOP-1" sheetId="19" r:id="rId1"/>
@@ -649,6 +649,15 @@
     <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -677,15 +686,6 @@
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -994,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView showZeros="0" topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1027,43 +1027,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
       <c r="W1" s="52"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="69"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -1108,58 +1108,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="59" t="s">
+      <c r="A4" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="59"/>
-      <c r="M4" s="62" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="62" t="s">
+      <c r="N4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="59" t="s">
+      <c r="O4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="60" t="s">
+      <c r="P4" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="59" t="s">
+      <c r="Q4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="59" t="s">
+      <c r="R4" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="71" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="59" t="s">
+      <c r="U4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="59" t="s">
+      <c r="V4" s="62" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="53"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1184,23 +1184,23 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="68"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="71"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
       <c r="W5" s="53"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="13"/>
-      <c r="U6" s="69" t="s">
+      <c r="U6" s="59" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="70"/>
+      <c r="U7" s="60"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1354,7 +1354,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="70"/>
+      <c r="U8" s="60"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1401,7 +1401,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="23"/>
-      <c r="U9" s="70"/>
+      <c r="U9" s="60"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1462,7 +1462,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="32"/>
-      <c r="U10" s="70"/>
+      <c r="U10" s="60"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1491,7 +1491,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="70"/>
+      <c r="U11" s="60"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1520,7 +1520,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="59" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1551,7 +1551,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="70"/>
+      <c r="U13" s="60"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1580,7 +1580,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="70"/>
+      <c r="U14" s="60"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1609,7 +1609,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="70"/>
+      <c r="U15" s="60"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1638,7 +1638,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="71"/>
+      <c r="U16" s="61"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2869,11 +2869,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -2887,6 +2882,11 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2897,8 +2897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2930,43 +2930,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
       <c r="W1" s="52"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="69"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -3011,58 +3011,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="59" t="s">
+      <c r="A4" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="59"/>
-      <c r="M4" s="62" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="62" t="s">
+      <c r="N4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="59" t="s">
+      <c r="O4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="60" t="s">
+      <c r="P4" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="59" t="s">
+      <c r="Q4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="59" t="s">
+      <c r="R4" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="71" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="59" t="s">
+      <c r="U4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="59" t="s">
+      <c r="V4" s="62" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="53"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="49" t="s">
         <v>1</v>
       </c>
@@ -3087,23 +3087,23 @@
       <c r="I5" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="49" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="68"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="71"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
       <c r="W5" s="53"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3113,7 +3113,9 @@
       <c r="B6" s="42">
         <v>44257</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="42">
+        <v>44258</v>
+      </c>
       <c r="D6" s="43" t="s">
         <v>63</v>
       </c>
@@ -3153,7 +3155,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="48"/>
-      <c r="U6" s="69" t="s">
+      <c r="U6" s="59" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3168,7 +3170,9 @@
       <c r="B7" s="42">
         <v>44257</v>
       </c>
-      <c r="C7" s="42"/>
+      <c r="C7" s="42">
+        <v>44258</v>
+      </c>
       <c r="D7" s="43" t="s">
         <v>63</v>
       </c>
@@ -3208,7 +3212,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="48"/>
-      <c r="U7" s="70"/>
+      <c r="U7" s="60"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3253,7 +3257,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="48"/>
-      <c r="U8" s="70"/>
+      <c r="U8" s="60"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3300,7 +3304,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="48"/>
-      <c r="U9" s="70"/>
+      <c r="U9" s="60"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3313,7 +3317,9 @@
       <c r="B10" s="42">
         <v>44257</v>
       </c>
-      <c r="C10" s="42"/>
+      <c r="C10" s="42">
+        <v>44258</v>
+      </c>
       <c r="D10" s="43" t="s">
         <v>63</v>
       </c>
@@ -3359,7 +3365,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="48"/>
-      <c r="U10" s="70"/>
+      <c r="U10" s="60"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3388,7 +3394,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="48"/>
-      <c r="U11" s="70"/>
+      <c r="U11" s="60"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3417,7 +3423,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="48"/>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="59" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3448,7 +3454,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="48"/>
-      <c r="U13" s="70"/>
+      <c r="U13" s="60"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3477,7 +3483,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="48"/>
-      <c r="U14" s="70"/>
+      <c r="U14" s="60"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3506,7 +3512,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="70"/>
+      <c r="U15" s="60"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3535,7 +3541,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="71"/>
+      <c r="U16" s="61"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4766,6 +4772,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4777,13 +4790,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103_SaoViet.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103_SaoViet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang3\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang3\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="87">
   <si>
     <t>STT</t>
   </si>
@@ -277,6 +277,21 @@
   </si>
   <si>
     <t>Thiết bị nổ nguồn, hỏng IC nguồn, MCU, module SIM868</t>
+  </si>
+  <si>
+    <t>ID mới : 868183033791125</t>
+  </si>
+  <si>
+    <t>Thay module SIM868, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>GPS,NCFW</t>
+  </si>
+  <si>
+    <t>GSM,NCFW</t>
+  </si>
+  <si>
+    <t>ID mới : 868183033791372</t>
   </si>
 </sst>
 </file>
@@ -649,6 +664,36 @@
     <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -656,36 +701,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1027,43 +1042,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
       <c r="W1" s="52"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -1108,58 +1123,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="65" t="s">
+      <c r="L4" s="59"/>
+      <c r="M4" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="65" t="s">
+      <c r="N4" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="62" t="s">
+      <c r="O4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="63" t="s">
+      <c r="P4" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="62" t="s">
+      <c r="Q4" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="62" t="s">
+      <c r="R4" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="68" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="62" t="s">
+      <c r="U4" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="V4" s="59" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="53"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1184,23 +1199,23 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="68"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
       <c r="W5" s="53"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1252,7 +1267,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="13"/>
-      <c r="U6" s="59" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1309,7 +1324,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="60"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1354,7 +1369,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="60"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1401,7 +1416,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="23"/>
-      <c r="U9" s="60"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1462,7 +1477,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="32"/>
-      <c r="U10" s="60"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1491,7 +1506,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="60"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1520,7 +1535,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="59" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1551,7 +1566,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="60"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1580,7 +1595,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="60"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1609,7 +1624,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="60"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1638,7 +1653,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="61"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2869,6 +2884,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -2882,11 +2902,6 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2898,7 +2913,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2930,43 +2945,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
       <c r="W1" s="52"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -3011,58 +3026,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="65" t="s">
+      <c r="L4" s="59"/>
+      <c r="M4" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="65" t="s">
+      <c r="N4" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="62" t="s">
+      <c r="O4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="63" t="s">
+      <c r="P4" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="62" t="s">
+      <c r="Q4" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="62" t="s">
+      <c r="R4" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="68" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="62" t="s">
+      <c r="U4" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="V4" s="59" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="53"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="49" t="s">
         <v>1</v>
       </c>
@@ -3087,23 +3102,23 @@
       <c r="I5" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="49" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="68"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
       <c r="W5" s="53"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3155,7 +3170,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="48"/>
-      <c r="U6" s="59" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3212,7 +3227,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="48"/>
-      <c r="U7" s="60"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3225,7 +3240,9 @@
       <c r="B8" s="42">
         <v>44257</v>
       </c>
-      <c r="C8" s="42"/>
+      <c r="C8" s="42">
+        <v>44327</v>
+      </c>
       <c r="D8" s="43" t="s">
         <v>63</v>
       </c>
@@ -3236,7 +3253,9 @@
       <c r="G8" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="43"/>
+      <c r="H8" s="43" t="s">
+        <v>86</v>
+      </c>
       <c r="I8" s="57" t="s">
         <v>68</v>
       </c>
@@ -3248,16 +3267,24 @@
         <v>74</v>
       </c>
       <c r="M8" s="45" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="43"/>
+      <c r="O8" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="R8" s="43" t="s">
+        <v>85</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="48"/>
-      <c r="U8" s="60"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3270,7 +3297,9 @@
       <c r="B9" s="42">
         <v>44257</v>
       </c>
-      <c r="C9" s="42"/>
+      <c r="C9" s="42">
+        <v>44327</v>
+      </c>
       <c r="D9" s="43" t="s">
         <v>63</v>
       </c>
@@ -3281,7 +3310,9 @@
       <c r="G9" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="I9" s="57" t="s">
         <v>68</v>
       </c>
@@ -3295,16 +3326,24 @@
         <v>74</v>
       </c>
       <c r="M9" s="45" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="43"/>
+      <c r="O9" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="R9" s="43" t="s">
+        <v>84</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="48"/>
-      <c r="U9" s="60"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3365,7 +3404,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="48"/>
-      <c r="U10" s="60"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3394,7 +3433,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="48"/>
-      <c r="U11" s="60"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3423,7 +3462,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="48"/>
-      <c r="U12" s="59" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3454,7 +3493,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="48"/>
-      <c r="U13" s="60"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3483,7 +3522,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="48"/>
-      <c r="U14" s="60"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3512,7 +3551,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="60"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3541,7 +3580,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="61"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3724,7 +3763,7 @@
       </c>
       <c r="V22" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W22" s="16"/>
     </row>
@@ -3873,7 +3912,7 @@
       </c>
       <c r="V27" s="11">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="16"/>
     </row>
@@ -3905,7 +3944,7 @@
       </c>
       <c r="V28" s="11">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="16"/>
     </row>
@@ -4129,7 +4168,7 @@
       </c>
       <c r="V35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W35" s="16"/>
     </row>
@@ -4193,7 +4232,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="W37" s="16"/>
     </row>
@@ -4772,13 +4811,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4790,6 +4822,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
